--- a/Equivalent_Widths/norm_RVcorr_LHS73.txt_EWs.xlsx
+++ b/Equivalent_Widths/norm_RVcorr_LHS73.txt_EWs.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sapta\Desktop\Atmospheric_Studies_VLMS\Equivalent_Widths\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2395DE34-0A7E-484E-93B5-3619D15C5C5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="15">
   <si>
     <t>Absorption_Lines_(A)</t>
   </si>
@@ -41,6 +47,15 @@
   </si>
   <si>
     <t>Ca I</t>
+  </si>
+  <si>
+    <t>Ti I</t>
+  </si>
+  <si>
+    <t>Fe I</t>
+  </si>
+  <si>
+    <t>Na I</t>
   </si>
   <si>
     <t>Lorentzian</t>
@@ -55,8 +70,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -119,6 +134,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -165,7 +188,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -197,9 +220,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -231,6 +272,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -406,14 +465,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="17.44140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -439,12 +501,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>6464.322988</v>
+        <v>6464.3275249999997</v>
       </c>
       <c r="B2">
-        <v>6464.353</v>
+        <v>6464.3530000000001</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
@@ -456,18 +518,18 @@
         <v>6465.17</v>
       </c>
       <c r="F2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G2">
-        <v>0.3844113201349587</v>
+        <v>0.38441132013495871</v>
       </c>
       <c r="H2">
-        <v>0.0101992490176838</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>1.0199249017683799E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>6473.432433</v>
+        <v>6473.4173870000004</v>
       </c>
       <c r="B3">
         <v>6473.45</v>
@@ -482,18 +544,18 @@
         <v>6474.4</v>
       </c>
       <c r="F3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G3">
-        <v>0.223723266760445</v>
+        <v>0.22372326676044499</v>
       </c>
       <c r="H3">
-        <v>0.005470175200929023</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>5.4701752009290233E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>6495.549775</v>
+        <v>6495.5543340000004</v>
       </c>
       <c r="B4">
         <v>6495.576</v>
@@ -508,21 +570,21 @@
         <v>6497.7</v>
       </c>
       <c r="F4" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G4">
-        <v>0.3346547371318765</v>
+        <v>0.33465473713187649</v>
       </c>
       <c r="H4">
-        <v>0.01295468132926558</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>1.2954681329265579E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>6501.426836</v>
+        <v>6501.4118090000002</v>
       </c>
       <c r="B5">
-        <v>6501.446</v>
+        <v>6501.4459999999999</v>
       </c>
       <c r="C5" t="s">
         <v>8</v>
@@ -534,143 +596,767 @@
         <v>6502.8</v>
       </c>
       <c r="F5" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G5">
-        <v>0.1716600869534187</v>
+        <v>0.17166008695341869</v>
       </c>
       <c r="H5">
-        <v>0.006263785960285435</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>6.2637859602854354E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>6574.576662</v>
+        <v>6556.0097489999998</v>
       </c>
       <c r="B6">
-        <v>6574.595</v>
+        <v>6556.0335999999998</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6">
-        <v>6573.7</v>
+        <v>6555.4</v>
       </c>
       <c r="E6">
-        <v>6575.4</v>
+        <v>6556.7</v>
       </c>
       <c r="F6" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G6">
-        <v>0.1754387739386669</v>
+        <v>5.5062990636090978E-2</v>
       </c>
       <c r="H6">
-        <v>0.003783984232195585</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>8.1702105775880416E-4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>6719.504999</v>
+        <v>6557.8512300000002</v>
       </c>
       <c r="B7">
-        <v>6719.536</v>
+        <v>6557.8729000000003</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7">
-        <v>6718.3</v>
+        <v>6557</v>
       </c>
       <c r="E7">
-        <v>6720.8</v>
+        <v>6558.3</v>
       </c>
       <c r="F7" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="G7">
-        <v>0.2601693950447304</v>
+        <v>6.3840492380321995E-2</v>
       </c>
       <c r="H7">
-        <v>0.008719333377492611</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>9.9125515203482496E-4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>7150.097707</v>
+        <v>6574.561686</v>
       </c>
       <c r="B8">
-        <v>7150</v>
+        <v>6574.5950000000003</v>
       </c>
       <c r="C8" t="s">
         <v>8</v>
       </c>
       <c r="D8">
+        <v>6573.7</v>
+      </c>
+      <c r="E8">
+        <v>6575.4</v>
+      </c>
+      <c r="F8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8">
+        <v>0.17543877393866689</v>
+      </c>
+      <c r="H8">
+        <v>3.783984232195585E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>6594.7200220000004</v>
+      </c>
+      <c r="B9">
+        <v>6594.7331000000004</v>
+      </c>
+      <c r="C9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9">
+        <v>6593</v>
+      </c>
+      <c r="E9">
+        <v>6597</v>
+      </c>
+      <c r="F9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9">
+        <v>7.897631782515549E-2</v>
+      </c>
+      <c r="H9">
+        <v>4.018225356566942E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>6595.6603519999999</v>
+      </c>
+      <c r="B10">
+        <v>6595.6904000000004</v>
+      </c>
+      <c r="C10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10">
+        <v>6593</v>
+      </c>
+      <c r="E10">
+        <v>6597</v>
+      </c>
+      <c r="F10" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10">
+        <v>3.2699341737649448E-2</v>
+      </c>
+      <c r="H10">
+        <v>1.643043657326537E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>6600.8909409999997</v>
+      </c>
+      <c r="B11">
+        <v>6600.9285</v>
+      </c>
+      <c r="C11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11">
+        <v>6600.2</v>
+      </c>
+      <c r="E11">
+        <v>6601.8</v>
+      </c>
+      <c r="F11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11">
+        <v>5.3002361615089519E-2</v>
+      </c>
+      <c r="H11">
+        <v>9.7408831653773311E-4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>6665.2448089999998</v>
+      </c>
+      <c r="B12">
+        <v>6665.2807000000003</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12">
+        <v>6664.41</v>
+      </c>
+      <c r="E12">
+        <v>6665.9</v>
+      </c>
+      <c r="F12" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12">
+        <v>3.7744084096131461E-2</v>
+      </c>
+      <c r="H12">
+        <v>6.743357321098109E-4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>6679.8199320000003</v>
+      </c>
+      <c r="B13">
+        <v>6679.8285999999998</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13">
+        <v>6678.3</v>
+      </c>
+      <c r="E13">
+        <v>6680.6</v>
+      </c>
+      <c r="F13" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13">
+        <v>0.10738595933627081</v>
+      </c>
+      <c r="H13">
+        <v>2.9543278147970008E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>6719.5097159999996</v>
+      </c>
+      <c r="B14">
+        <v>6719.5360000000001</v>
+      </c>
+      <c r="C14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14">
+        <v>6718.3</v>
+      </c>
+      <c r="E14">
+        <v>6720.8</v>
+      </c>
+      <c r="F14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14">
+        <v>0.26016939504473041</v>
+      </c>
+      <c r="H14">
+        <v>8.7193333774926111E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>7150.1027260000001</v>
+      </c>
+      <c r="B15">
+        <v>7150</v>
+      </c>
+      <c r="C15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15">
         <v>7149</v>
       </c>
-      <c r="E8">
+      <c r="E15">
         <v>7151.7</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F15" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15">
+        <v>0.33725364933867708</v>
+      </c>
+      <c r="H15">
+        <v>1.165599270590415E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>7204.1521389999998</v>
+      </c>
+      <c r="B16">
+        <v>7204</v>
+      </c>
+      <c r="C16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16">
+        <v>7203</v>
+      </c>
+      <c r="E16">
+        <v>7206.4</v>
+      </c>
+      <c r="F16" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16">
+        <v>0.27406728871180042</v>
+      </c>
+      <c r="H16">
+        <v>1.1668559159165511E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>7211.4005200000001</v>
+      </c>
+      <c r="B17">
+        <v>7211.4228000000003</v>
+      </c>
+      <c r="C17" t="s">
         <v>9</v>
       </c>
-      <c r="G8">
-        <v>0.3372536493386771</v>
-      </c>
-      <c r="H8">
-        <v>0.01165599270590415</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9">
-        <v>7204.147083</v>
-      </c>
-      <c r="B9">
-        <v>7204</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="D17">
+        <v>7210.75</v>
+      </c>
+      <c r="E17">
+        <v>7212.25</v>
+      </c>
+      <c r="F17" t="s">
+        <v>14</v>
+      </c>
+      <c r="G17">
+        <v>0.1212681361658248</v>
+      </c>
+      <c r="H17">
+        <v>2.316622614496566E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>7246.8196360000002</v>
+      </c>
+      <c r="B18">
+        <v>7246.8509999999997</v>
+      </c>
+      <c r="C18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18">
+        <v>7245.66</v>
+      </c>
+      <c r="E18">
+        <v>7247.69</v>
+      </c>
+      <c r="F18" t="s">
+        <v>14</v>
+      </c>
+      <c r="G18">
+        <v>9.136089194772691E-2</v>
+      </c>
+      <c r="H18">
+        <v>2.6227075297594171E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>7253.6762129999997</v>
+      </c>
+      <c r="B19">
+        <v>7253.7078000000001</v>
+      </c>
+      <c r="C19" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19">
+        <v>7252.17</v>
+      </c>
+      <c r="E19">
+        <v>7255</v>
+      </c>
+      <c r="F19" t="s">
+        <v>14</v>
+      </c>
+      <c r="G19">
+        <v>9.0890033293476113E-2</v>
+      </c>
+      <c r="H19">
+        <v>3.669282460744105E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>7328.1386339999999</v>
+      </c>
+      <c r="B20">
+        <v>7328</v>
+      </c>
+      <c r="C20" t="s">
         <v>8</v>
       </c>
-      <c r="D9">
-        <v>7203</v>
-      </c>
-      <c r="E9">
-        <v>7206.4</v>
-      </c>
-      <c r="F9" t="s">
+      <c r="D20">
+        <v>7327</v>
+      </c>
+      <c r="E20">
+        <v>7329.5</v>
+      </c>
+      <c r="F20" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20">
+        <v>0.29390004241647139</v>
+      </c>
+      <c r="H20">
+        <v>8.9717933397581891E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>7346.6905720000004</v>
+      </c>
+      <c r="B21">
+        <v>7346.7186000000002</v>
+      </c>
+      <c r="C21" t="s">
         <v>9</v>
       </c>
-      <c r="G9">
-        <v>0.2740672887118004</v>
-      </c>
-      <c r="H9">
-        <v>0.01166855915916551</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10">
-        <v>7328.153081</v>
-      </c>
-      <c r="B10">
-        <v>7328</v>
-      </c>
-      <c r="C10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10">
-        <v>7327</v>
-      </c>
-      <c r="E10">
-        <v>7329.5</v>
-      </c>
-      <c r="F10" t="s">
+      <c r="D21">
+        <v>7346.13</v>
+      </c>
+      <c r="E21">
+        <v>7347.64</v>
+      </c>
+      <c r="F21" t="s">
+        <v>14</v>
+      </c>
+      <c r="G21">
+        <v>8.2108513279034678E-2</v>
+      </c>
+      <c r="H21">
+        <v>1.554998668828684E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>7359.7376569999997</v>
+      </c>
+      <c r="B22">
+        <v>7359.7538000000004</v>
+      </c>
+      <c r="C22" t="s">
         <v>9</v>
       </c>
-      <c r="G10">
-        <v>0.2939000424164714</v>
-      </c>
-      <c r="H10">
-        <v>0.008971793339758189</v>
+      <c r="D22">
+        <v>7358.66</v>
+      </c>
+      <c r="E22">
+        <v>7360.35</v>
+      </c>
+      <c r="F22" t="s">
+        <v>14</v>
+      </c>
+      <c r="G22">
+        <v>6.6134550853306731E-2</v>
+      </c>
+      <c r="H22">
+        <v>1.491372189735744E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>7366.1240690000004</v>
+      </c>
+      <c r="B23">
+        <v>7366.1297999999997</v>
+      </c>
+      <c r="C23" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23">
+        <v>7365.3</v>
+      </c>
+      <c r="E23">
+        <v>7367</v>
+      </c>
+      <c r="F23" t="s">
+        <v>14</v>
+      </c>
+      <c r="G23">
+        <v>6.0705816714784408E-2</v>
+      </c>
+      <c r="H23">
+        <v>1.26614134298093E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>7666.3833530000002</v>
+      </c>
+      <c r="B24">
+        <v>7666.4029</v>
+      </c>
+      <c r="C24" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24">
+        <v>7664</v>
+      </c>
+      <c r="E24">
+        <v>7669.4</v>
+      </c>
+      <c r="F24" t="s">
+        <v>13</v>
+      </c>
+      <c r="G24">
+        <v>0.76128958845667061</v>
+      </c>
+      <c r="H24">
+        <v>5.1945959106743461E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>8185.5045620000001</v>
+      </c>
+      <c r="B25">
+        <v>8185.5052999999998</v>
+      </c>
+      <c r="C25" t="s">
+        <v>11</v>
+      </c>
+      <c r="D25">
+        <v>8184.05</v>
+      </c>
+      <c r="E25">
+        <v>8187</v>
+      </c>
+      <c r="F25" t="s">
+        <v>13</v>
+      </c>
+      <c r="G25">
+        <v>0.23327657897792081</v>
+      </c>
+      <c r="H25">
+        <v>8.8574056619671708E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>8437.2584640000005</v>
+      </c>
+      <c r="B26">
+        <v>8437.2720000000008</v>
+      </c>
+      <c r="C26" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26">
+        <v>8434</v>
+      </c>
+      <c r="E26">
+        <v>8440</v>
+      </c>
+      <c r="F26" t="s">
+        <v>13</v>
+      </c>
+      <c r="G26">
+        <v>0.29114991116512068</v>
+      </c>
+      <c r="H26">
+        <v>1.916727008016594E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>8437.9637120000007</v>
+      </c>
+      <c r="B27">
+        <v>8437.9699999999993</v>
+      </c>
+      <c r="C27" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27">
+        <v>8434</v>
+      </c>
+      <c r="E27">
+        <v>8440</v>
+      </c>
+      <c r="F27" t="s">
+        <v>13</v>
+      </c>
+      <c r="G27">
+        <v>0.24827945603233351</v>
+      </c>
+      <c r="H27">
+        <v>1.6344979705075459E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>8470.7381480000004</v>
+      </c>
+      <c r="B28">
+        <v>8470.7329000000009</v>
+      </c>
+      <c r="C28" t="s">
+        <v>10</v>
+      </c>
+      <c r="D28">
+        <v>8468.35</v>
+      </c>
+      <c r="E28">
+        <v>8472</v>
+      </c>
+      <c r="F28" t="s">
+        <v>13</v>
+      </c>
+      <c r="G28">
+        <v>0.1470880011383493</v>
+      </c>
+      <c r="H28">
+        <v>5.9708373367993043E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>8516.4029480000008</v>
+      </c>
+      <c r="B29">
+        <v>8516.4105999999992</v>
+      </c>
+      <c r="C29" t="s">
+        <v>10</v>
+      </c>
+      <c r="D29">
+        <v>8515</v>
+      </c>
+      <c r="E29">
+        <v>8518.5</v>
+      </c>
+      <c r="F29" t="s">
+        <v>13</v>
+      </c>
+      <c r="G29">
+        <v>0.1082254972374934</v>
+      </c>
+      <c r="H29">
+        <v>4.4580841452963498E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>8677.1211039999998</v>
+      </c>
+      <c r="B30">
+        <v>8677.1283999999996</v>
+      </c>
+      <c r="C30" t="s">
+        <v>10</v>
+      </c>
+      <c r="D30">
+        <v>8675</v>
+      </c>
+      <c r="E30">
+        <v>8679</v>
+      </c>
+      <c r="F30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G30">
+        <v>6.8731260341248462E-2</v>
+      </c>
+      <c r="H30">
+        <v>2.981198829637619E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>8677.7479910000002</v>
+      </c>
+      <c r="B31">
+        <v>8677.7549999999992</v>
+      </c>
+      <c r="C31" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31">
+        <v>8675</v>
+      </c>
+      <c r="E31">
+        <v>8679</v>
+      </c>
+      <c r="F31" t="s">
+        <v>13</v>
+      </c>
+      <c r="G31">
+        <v>0.10423558465846269</v>
+      </c>
+      <c r="H31">
+        <v>4.5211887785492838E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>8685.3685860000005</v>
+      </c>
+      <c r="B32">
+        <v>8685.3680000000004</v>
+      </c>
+      <c r="C32" t="s">
+        <v>9</v>
+      </c>
+      <c r="D32">
+        <v>8684</v>
+      </c>
+      <c r="E32">
+        <v>8687</v>
+      </c>
+      <c r="F32" t="s">
+        <v>14</v>
+      </c>
+      <c r="G32">
+        <v>7.1057414847585751E-2</v>
+      </c>
+      <c r="H32">
+        <v>2.3213495965230808E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>8690.9909779999998</v>
+      </c>
+      <c r="B33">
+        <v>8691.0097000000005</v>
+      </c>
+      <c r="C33" t="s">
+        <v>10</v>
+      </c>
+      <c r="D33">
+        <v>8688</v>
+      </c>
+      <c r="E33">
+        <v>8694</v>
+      </c>
+      <c r="F33" t="s">
+        <v>12</v>
+      </c>
+      <c r="G33">
+        <v>0.37928555476239212</v>
+      </c>
+      <c r="H33">
+        <v>2.4647474295897989E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>8826.6336539999993</v>
+      </c>
+      <c r="B34">
+        <v>8826.6425999999992</v>
+      </c>
+      <c r="C34" t="s">
+        <v>10</v>
+      </c>
+      <c r="D34">
+        <v>8824</v>
+      </c>
+      <c r="E34">
+        <v>8830</v>
+      </c>
+      <c r="F34" t="s">
+        <v>12</v>
+      </c>
+      <c r="G34">
+        <v>0.26367851888759503</v>
+      </c>
+      <c r="H34">
+        <v>1.6974098299580749E-2</v>
       </c>
     </row>
   </sheetData>
